--- a/api_server_v1.0/tags/版本更新记录表.xlsx
+++ b/api_server_v1.0/tags/版本更新记录表.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\MyProject\new_crt_v1.0\api_server_v1.0\tags\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0B9EAE2-4F2A-424D-99AE-738C32D2C0DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8AE1D6C9-07D1-4EB9-A714-06F15B080692}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1275" yWindow="1245" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
     <t>版本号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -105,6 +105,22 @@
 5. 优化采集效率，celery任务增加优先级
 6. 优化crt的远程传输功能，非分配序列号不进行通讯
 7. 修复连接新版控制器首页声光事件计数丢失问题</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3.0.8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. 修复未知控制器事件上报无法显示问题
+2. 修复网卡速率低的问题
+3. 更新国标事件表
+4. 控制器操作记录中描述增加控制器类型（主控制器和非主控制器）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. 修复未知控制器事件上报无法显示问题
+2. 控制器操作记录中操作类型增加控制器类型（主控制器和非主控制器）</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -433,9 +449,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C5"/>
+  <dimension ref="A1:C6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
       <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
@@ -496,6 +512,17 @@
         <v>11</v>
       </c>
     </row>
+    <row r="6" spans="1:3" ht="57" x14ac:dyDescent="0.2">
+      <c r="A6" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
